--- a/data/trans_dic/P24_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P24_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia</t>
+          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia (tasa de respuesta: 98,62%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>4,64%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7,59%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>4,42%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,71%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,01%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>6,48%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>2,37%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>2,51%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>1,55%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>1,95%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>5,49%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,91</t>
+          <t>0,0; 2,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,48</t>
+          <t>0,7; 6,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,45</t>
+          <t>0,0; 4,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,21</t>
+          <t>0,0; 6,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 9,61</t>
+          <t>0,0; 4,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 8,25</t>
+          <t>1,86; 10,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 8,72</t>
+          <t>2,93; 15,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,94</t>
+          <t>2,16; 8,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,78</t>
+          <t>0,63; 5,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 12,31</t>
+          <t>0,47; 4,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,48</t>
+          <t>0,5; 4,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,44</t>
+          <t>1,4; 8,57</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,69</t>
+          <t>2,79; 13,06</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,65</t>
+          <t>2,61; 11,16</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 9,21</t>
+          <t>1,08; 4,25</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 4,52</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 3,06</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 4,07</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 5,04</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 9,51</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>3,58; 11,18</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>7,4%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>4,46%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>3,17%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,43%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>6,1%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,73%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>2,16%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>2,74%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>3,93%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>4,9%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>3,95%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3,99%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>7,09%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>3,3%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,16</t>
+          <t>0,87; 5,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 9,5</t>
+          <t>2,62; 9,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 7,65</t>
+          <t>1,5; 7,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 8,6</t>
+          <t>2,44; 8,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,63</t>
+          <t>3,21; 13,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 6,29</t>
+          <t>1,67; 10,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,6</t>
+          <t>2,88; 12,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 9,96</t>
+          <t>1,27; 6,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,79</t>
+          <t>0,92; 5,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,01</t>
+          <t>3,55; 10,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,41</t>
+          <t>1,17; 5,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,32</t>
+          <t>3,7; 10,63</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,7</t>
+          <t>0,54; 4,95</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,11</t>
+          <t>3,26; 12,36</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,53</t>
+          <t>1,38; 4,58</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 6,61</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 7,65</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 6,62</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>4,28; 10,98</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>1,53; 6,11</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 10,5</t>
         </is>
       </c>
     </row>
@@ -1025,12 +1194,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -1040,57 +1209,87 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>3,27%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>5,94%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,43%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>6,23%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>7,09%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
           <t>4,84%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,68</t>
+          <t>2,31; 7,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 7,45</t>
+          <t>2,48; 8,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,07</t>
+          <t>2,05; 6,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 6,45</t>
+          <t>2,06; 6,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 6,36</t>
+          <t>3,18; 9,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 9,2</t>
+          <t>1,4; 6,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 7,44</t>
+          <t>3,53; 10,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 9,39</t>
+          <t>3,79; 9,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,05</t>
+          <t>2,51; 7,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 10,32</t>
+          <t>4,04; 9,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,55</t>
+          <t>1,98; 5,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,24</t>
+          <t>5,01; 13,85</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,18</t>
+          <t>3,67; 10,42</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,54</t>
+          <t>3,21; 9,75</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,0</t>
+          <t>3,39; 7,5</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,12; 6,78</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 6,94</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 5,32</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 10,0</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>3,13; 6,98</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 8,82</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12,39%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>8,87%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,35%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>8,97%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>6,47%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>8,47%</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12,19%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
         <is>
           <t>14,47%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>7,67%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>6,14%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>8,61%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>6,81%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>11,75%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>10,96%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>11,74%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>14,16%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 15,46</t>
+          <t>3,19; 14,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 12,26</t>
+          <t>3,1; 13,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 11,77</t>
+          <t>5,49; 11,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,03</t>
+          <t>2,94; 7,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 14,16</t>
+          <t>6,25; 13,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 12,49</t>
+          <t>5,46; 14,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 9,68</t>
+          <t>8,14; 17,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 12,69</t>
+          <t>5,95; 12,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 11,83</t>
+          <t>3,89; 9,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,14; 19,37</t>
+          <t>6,15; 12,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 11,67</t>
+          <t>5,73; 12,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 9,34</t>
+          <t>8,9; 16,4</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,04</t>
+          <t>10,4; 19,45</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,01</t>
+          <t>11,79; 21,02</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>8,96; 15,14</t>
+          <t>5,67; 11,5</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>4,27; 10,19</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 10,85</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>5,11; 9,13</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>8,48; 13,95</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>8,83; 15,33</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>10,89; 17,67</t>
         </is>
       </c>
     </row>
@@ -1365,72 +1654,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>17,39%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>13,82%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17,05%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>2,67%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,89%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>9,19%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
+          <t>10,65%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13,9%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>17,08%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>22,02%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>2,31%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>7,03%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>10,04%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>10,55%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>7,19%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>10,54%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>15,6%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
         <is>
           <t>15,51%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,06</t>
+          <t>0,74; 4,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 8,79</t>
+          <t>2,91; 9,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,37; 15,4</t>
+          <t>7,64; 15,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,75; 14,54</t>
+          <t>7,34; 15,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,25; 19,78</t>
+          <t>12,55; 23,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,64</t>
+          <t>9,14; 19,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 14,09</t>
+          <t>11,64; 23,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,05; 13,36</t>
+          <t>1,02; 5,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 15,1</t>
+          <t>5,61; 13,58</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,24; 22,25</t>
+          <t>6,01; 13,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,15</t>
+          <t>7,29; 15,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,98; 9,91</t>
+          <t>9,21; 19,78</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,68; 13,03</t>
+          <t>12,22; 22,18</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,0; 13,57</t>
+          <t>16,7; 27,98</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>12,1; 19,26</t>
+          <t>1,21; 3,97</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 9,85</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>7,48; 12,98</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>8,19; 13,66</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>12,36; 19,52</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>12,15; 19,61</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>15,97; 23,73</t>
         </is>
       </c>
     </row>
@@ -1535,72 +1884,102 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>7,93%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19,76%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>8,86%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>13,3%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>11,51%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>14,01%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>24,62%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>12,16%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>32,49%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
           <t>6,85%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>10,22%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>9,71%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>10,5%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>10,9%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>9,97%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>11,31%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
         <is>
           <t>10,36%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>27,15%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 7,33</t>
+          <t>2,03; 7,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,32; 10,36</t>
+          <t>3,61; 10,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,1; 11,85</t>
+          <t>4,25; 12,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,82</t>
+          <t>4,63; 11,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,4; 13,16</t>
+          <t>7,61; 20,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,8; 12,55</t>
+          <t>4,21; 13,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,97; 18,68</t>
+          <t>13,93; 27,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,1; 16,34</t>
+          <t>5,92; 12,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,66; 18,61</t>
+          <t>9,55; 20,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,82; 19,42</t>
+          <t>8,31; 16,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,42</t>
+          <t>9,15; 22,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,35; 13,93</t>
+          <t>17,81; 34,38</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>7,14; 12,94</t>
+          <t>6,99; 19,76</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>8,06; 14,35</t>
+          <t>25,02; 41,45</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>7,17; 15,35</t>
+          <t>4,78; 9,18</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>7,86; 15,7</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>7,33; 13,11</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>8,32; 16,63</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>14,89; 26,27</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>7,02; 14,76</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>21,88; 33,69</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>7,11%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>6,06%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>6,69%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>7,56%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>7,63%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7,11%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>10,06%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>15,87%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>4,78%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>5,82%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>6,73%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>6,23%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>6,74%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>10,71%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>8,59%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,07</t>
+          <t>2,49; 4,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,57</t>
+          <t>3,94; 6,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,1</t>
+          <t>4,71; 7,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,4; 6,84</t>
+          <t>4,5; 6,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,53; 8,73</t>
+          <t>7,39; 11,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,98; 7,49</t>
+          <t>5,5; 8,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,4</t>
+          <t>9,32; 13,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,22; 9,0</t>
+          <t>4,9; 7,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,38</t>
+          <t>5,53; 8,56</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,33; 12,52</t>
+          <t>6,35; 9,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 5,75</t>
+          <t>5,81; 8,69</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,93; 6,99</t>
+          <t>10,3; 15,0</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,68</t>
+          <t>8,27; 12,15</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>5,38; 7,14</t>
+          <t>13,45; 18,65</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>7,35; 9,96</t>
+          <t>4,06; 5,74</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>5,1; 7,18</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 7,74</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>5,54; 7,45</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>9,42; 12,42</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 9,84</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>12,0; 15,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia (tasa de respuesta: 98,62%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2634</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11066</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3413</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9760</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5015</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3307</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20477</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8886</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10390</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8863</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16344</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2315</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2160</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>23111</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>19952</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>13803</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>18623</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>21359</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>5467</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13006</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3394; 31447</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21476</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 32334</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21951</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>777; 4406</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1279; 6760</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9990; 38976</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2898; 24143</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2349; 24232</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2534; 24529</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6562; 40067</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>995; 4663</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>989; 4225</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>10544; 41479</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>8950; 42785</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>4801; 30780</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>5282; 41010</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>8371; 46634</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>2449; 7358</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>2915; 9101</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13187</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29065</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20229</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>29342</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>42367</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2953</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16453</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12869</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30532</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14801</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>33627</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3042</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>29641</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>41934</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>50761</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>44142</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>75994</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>3063</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>5994</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4917; 29349</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14339; 53592</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8152; 38195</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14091; 51425</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18403; 77463</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>766; 4691</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1352; 5698</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6609; 33976</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4662; 26835</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17392; 49882</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5862; 28159</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18492; 53123</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>253; 2326</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1465; 5553</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>14928; 49612</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>23808; 69531</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>31174; 79121</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>25604; 71397</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>45887; 117812</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>1427; 5675</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>3584; 9640</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>29504</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30163</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25197</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>25894</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>38636</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3755</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>41260</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>31411</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>42624</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>24222</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>58395</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>3459</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3197</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>70764</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>61574</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>67821</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>50116</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>97030</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>5383</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>6953</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15601; 51754</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15765; 52540</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13024; 43211</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13582; 40844</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21139; 64413</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>822; 3794</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2109; 6223</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26279; 66456</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17147; 50671</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27429; 62674</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13648; 38985</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>35221; 97383</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1922; 5449</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1721; 5220</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>46459; 102700</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>41127; 89451</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>49047; 91269</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>33545; 71707</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>63124; 136859</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>3474; 7762</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>4527; 9994</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>40548</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>39276</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>50806</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>31140</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>63332</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5153</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6788</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>62410</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>42569</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>55935</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>52472</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>78429</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>8364</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>102958</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>81846</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>106741</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>83611</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>141761</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>12323</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>15151</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>20343; 95679</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>19677; 86117</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>34047; 73987</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17482; 47040</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>40631; 90540</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3027; 8198</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4460; 9763</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>41821; 86435</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>25588; 61591</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>38660; 77971</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>35486; 74520</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>57258; 105548</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5151; 9637</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>6155; 10975</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>76045; 154276</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>55129; 131665</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>82234; 135580</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>62074; 110816</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>109679; 180509</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>9265; 16091</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>11652; 18901</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10005</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>26239</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>53751</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>49853</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>83667</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6013</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7529</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13435</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>43645</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>43898</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>52794</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>69941</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>8008</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>9829</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>23440</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>69884</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>97649</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>102647</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>153607</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>14021</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>17358</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3765; 21929</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13890; 46859</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>36455; 76271</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>35056; 71854</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>60393; 110735</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3978; 8663</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5140; 10195</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5107; 27845</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>27756; 67127</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>28868; 65175</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>36161; 74942</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>46333; 99541</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>5732; 10400</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>7455; 12493</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>12229; 40278</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>47438; 95686</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>71697; 124365</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>79749; 132967</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>121681; 192112</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>10989; 17729</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>14181; 21077</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>22807</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>34264</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>37581</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>40359</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>74049</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3659</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>8948</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>64771</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>101194</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>79984</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>95173</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>179541</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>7579</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>20380</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>87578</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>135459</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>117565</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>135533</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>253589</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>11238</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>29328</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>11112; 42144</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>19500; 58218</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>21439; 62734</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>24036; 61268</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>43089; 115687</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1941; 6277</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6308; 12314</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>43313; 90829</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>67176; 144449</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>56021; 110988</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>62136; 150034</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>129907; 250718</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>4356; 12317</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>15698; 26002</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>61109; 117326</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>97625; 195147</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>86462; 154531</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>99762; 199309</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>192944; 340419</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>7616; 16009</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>23634; 36389</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>118686</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>170074</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>190977</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>186347</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>307065</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>20733</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>33279</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>218806</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>240574</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>263363</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>248325</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>436276</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>29545</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>46972</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>337492</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>410649</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>454340</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>434673</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>743341</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>50278</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>80251</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>85724; 170561</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>130645; 228998</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>155024; 239282</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>149861; 228808</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>250739; 376702</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>16028; 25834</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>27445; 39312</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>177126; 260858</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>193685; 300022</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>219088; 310525</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>202814; 303321</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>365437; 532096</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>24281; 35679</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>39810; 55193</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>286627; 405508</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>348283; 490095</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>400929; 521933</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>377660; 508149</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>653760; 861958</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>42323; 57618</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>70878; 89560</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>